--- a/Study 3/Shocks/GCAM/NDC_LTT - 2085.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2085.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.02865031842453363</v>
+        <v>0.02865031842453362</v>
       </c>
     </row>
     <row r="3">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.0534470829641313</v>
+        <v>0.05344708296413131</v>
       </c>
     </row>
     <row r="6">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.07744887752972966</v>
+        <v>0.07744887752972965</v>
       </c>
     </row>
     <row r="7">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.004217373342383698</v>
+        <v>0.004217373342383697</v>
       </c>
     </row>
     <row r="11">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.07061817127589298</v>
+        <v>0.07061817127589297</v>
       </c>
     </row>
     <row r="13">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.002692472254540261</v>
+        <v>0.00269247225454026</v>
       </c>
     </row>
     <row r="15">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.02310769144668676</v>
+        <v>0.02310769144668677</v>
       </c>
     </row>
     <row r="18">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.05607794824910232</v>
+        <v>0.05607794824910231</v>
       </c>
     </row>
     <row r="21">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.03198219934516248</v>
+        <v>0.03198219934516249</v>
       </c>
     </row>
     <row r="22">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.508673834471382</v>
+        <v>0.5086738344713819</v>
       </c>
     </row>
     <row r="23">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.03294236064364202</v>
+        <v>0.03294236064364201</v>
       </c>
     </row>
     <row r="29">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.01421605533597811</v>
+        <v>0.01421605533597812</v>
       </c>
     </row>
     <row r="30">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.002473648425558476</v>
+        <v>0.002473648425558475</v>
       </c>
     </row>
     <row r="31">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.0489260778109628</v>
+        <v>0.04892607781096281</v>
       </c>
     </row>
     <row r="34">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2253187576266429</v>
+        <v>0.2253187576266428</v>
       </c>
     </row>
     <row r="37">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.09492140757940438</v>
+        <v>0.09492140757940437</v>
       </c>
     </row>
     <row r="39">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.4096969163150666</v>
+        <v>0.4096969163150667</v>
       </c>
     </row>
   </sheetData>
